--- a/SmartMedTelegram/src/media/data/comparative_analysis/t_criteria_dependent/t_criteria_dependent_521106451.xlsx
+++ b/SmartMedTelegram/src/media/data/comparative_analysis/t_criteria_dependent/t_criteria_dependent_521106451.xlsx
@@ -31,19 +31,19 @@
     <t>alpha = 0.95</t>
   </si>
   <si>
-    <t>До вакцинации (n1 = 69)</t>
-  </si>
-  <si>
-    <t>Группа (n2 = 69)</t>
+    <t>Depression (n1 = 100)</t>
+  </si>
+  <si>
+    <t>Hypochondriasis (n2 = 100)</t>
   </si>
   <si>
     <t>p-value</t>
   </si>
   <si>
-    <t>502.493 ± 325.026</t>
-  </si>
-  <si>
-    <t>2.754 ± 1.244</t>
+    <t>61.87 ± 15.31</t>
+  </si>
+  <si>
+    <t>57.45 ± 12.16</t>
   </si>
   <si>
     <t>&lt; 0.001</t>
@@ -429,13 +429,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>12.692</v>
+        <v>3.675</v>
       </c>
       <c r="C2">
-        <v>1.668</v>
+        <v>1.66</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
